--- a/Libraries/Vehicle/Body/Human/sm_car_data_DriverHuman.xlsx
+++ b/Libraries/Vehicle/Body/Human/sm_car_data_DriverHuman.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Body\Human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB926A2E-A817-4A2E-85C6-B1B7E8FFCD6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AAFA1C-9CFE-4B90-A59E-8D6CA5203C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="747" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="0" yWindow="1152" windowWidth="23040" windowHeight="10212" tabRatio="747" activeTab="4" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="None" sheetId="7" r:id="rId1"/>
     <sheet name="Sedan_Hamba" sheetId="5" r:id="rId2"/>
     <sheet name="Sedan_HambaLG" sheetId="8" r:id="rId3"/>
     <sheet name="Bus_Makhulu" sheetId="9" r:id="rId4"/>
+    <sheet name="Truck_Amandla" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="36">
   <si>
     <t>Units</t>
   </si>
@@ -139,6 +142,9 @@
   </si>
   <si>
     <t>aHeadInclination</t>
+  </si>
+  <si>
+    <t>Truck_Amandla</t>
   </si>
 </sst>
 </file>
@@ -247,7 +253,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -591,7 +604,7 @@
   </sheetPr>
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
@@ -797,7 +810,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1019,7 +1032,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1317,7 +1330,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1686,6 +1699,375 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:B4">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE6E90-5A8F-4548-9B59-28F95E095825}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:AB29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="11">
+        <v>-1.3230999999999999</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.55801299999999998</v>
+      </c>
+      <c r="H5" s="11">
+        <v>2.3923999999999999</v>
+      </c>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>25</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="10"/>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.8196</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="10"/>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="K14" s="11">
+        <v>-1.3243331220516996</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0.45175517503754498</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0.88921153885340298</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="K16" s="12">
+        <v>-1.0213531220517</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.37675517503754502</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0.92326153885340301</v>
+      </c>
+      <c r="O16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K18" s="15">
+        <f>K14-K16</f>
+        <v>-0.30297999999999958</v>
+      </c>
+      <c r="L18" s="15">
+        <f>L14-L16</f>
+        <v>7.4999999999999956E-2</v>
+      </c>
+      <c r="M18" s="15">
+        <f>M14-M16</f>
+        <v>-3.4050000000000025E-2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K21" s="11">
+        <v>-1.26656038245259</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0.37676294844659303</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0.62577262194716998</v>
+      </c>
+      <c r="O21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K22" s="15">
+        <f>K21+K18</f>
+        <v>-1.5695403824525895</v>
+      </c>
+      <c r="L22" s="15">
+        <f>L21+L18</f>
+        <v>0.45176294844659298</v>
+      </c>
+      <c r="M22" s="15">
+        <f>M21+M18</f>
+        <v>0.59172262194716996</v>
+      </c>
+      <c r="O22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K24" s="12">
+        <v>1.1638776779483</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0.55926517503754503</v>
+      </c>
+      <c r="M24" s="12">
+        <v>1.3352423388534029</v>
+      </c>
+      <c r="O24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K25" s="12">
+        <v>-1.0213531220517</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0.37675517503754502</v>
+      </c>
+      <c r="M25" s="12">
+        <v>0.92326153885340301</v>
+      </c>
+      <c r="O25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <f>K24-K25</f>
+        <v>2.1852308000000003</v>
+      </c>
+      <c r="L26">
+        <f>L24-L25</f>
+        <v>0.18251000000000001</v>
+      </c>
+      <c r="M26">
+        <f>M24-M25</f>
+        <v>0.41198079999999992</v>
+      </c>
+      <c r="O26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K28" s="11">
+        <v>-1.26656038245259</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0.37676294844659303</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0.62577262194716998</v>
+      </c>
+      <c r="O28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K29" s="15">
+        <f>K28+K26</f>
+        <v>0.9186704175474103</v>
+      </c>
+      <c r="L29" s="15">
+        <f>L28+L26</f>
+        <v>0.55927294844659303</v>
+      </c>
+      <c r="M29" s="15">
+        <f>M28+M26</f>
+        <v>1.03775342194717</v>
+      </c>
+      <c r="O29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:B4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>

--- a/Libraries/Vehicle/Body/Human/sm_car_data_DriverHuman.xlsx
+++ b/Libraries/Vehicle/Body/Human/sm_car_data_DriverHuman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Body\Human\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\allsimscape\cars\vehicle-templates\Libraries\Vehicle\Body\Human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AAFA1C-9CFE-4B90-A59E-8D6CA5203C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C219D9E-895E-460D-8ADC-7E38B904B40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1152" windowWidth="23040" windowHeight="10212" tabRatio="747" activeTab="4" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="3510" yWindow="510" windowWidth="21600" windowHeight="15210" tabRatio="747" activeTab="4" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="None" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="39">
   <si>
     <t>Units</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>Truck_Amandla</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>kg/m^3</t>
+  </si>
+  <si>
+    <t>Use to adjust passenger mass</t>
   </si>
 </sst>
 </file>
@@ -209,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -218,29 +227,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -602,28 +604,28 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -643,170 +645,165 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>-1.26656038245259</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>0.37676294844659303</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>0.62577262194716998</v>
       </c>
       <c r="K5" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>0</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>0</v>
       </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>15</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="8"/>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H9" s="9">
         <v>0.93330000000000002</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10"/>
-      <c r="D9" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="8"/>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="L9" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:B4">
@@ -824,7 +821,7 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -834,18 +831,18 @@
       <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -865,170 +862,165 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>-1.26656038245259</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>0.37676294844659303</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>0.62577262194716998</v>
       </c>
       <c r="K5" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>0</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>0</v>
       </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>15</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="8"/>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H9" s="9">
         <v>0.93330000000000002</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10"/>
-      <c r="D9" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="8"/>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="L9" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:B4">
@@ -1046,7 +1038,7 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1056,18 +1048,18 @@
       <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1087,244 +1079,239 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>-1.5695403824525895</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>0.45176294844659298</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>0.59172262194716996</v>
       </c>
       <c r="K5" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>0</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>0</v>
       </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>15</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="8"/>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H9" s="9">
         <v>0.93330000000000002</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10"/>
-      <c r="D9" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="8"/>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="K14" s="11">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K15" s="9">
         <v>-1.3243331220516996</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L15" s="9">
         <v>0.45175517503754498</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M15" s="9">
         <v>0.88921153885340298</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="K16" s="12">
+    <row r="17" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K17" s="10">
         <v>-1.0213531220517</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L17" s="10">
         <v>0.37675517503754502</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M17" s="10">
         <v>0.92326153885340301</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K18" s="15">
-        <f>K14-K16</f>
+    <row r="19" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K19" s="12">
+        <f>K15-K17</f>
         <v>-0.30297999999999958</v>
       </c>
-      <c r="L18" s="15">
-        <f>L14-L16</f>
+      <c r="L19" s="12">
+        <f>L15-L17</f>
         <v>7.4999999999999956E-2</v>
       </c>
-      <c r="M18" s="15">
-        <f>M14-M16</f>
+      <c r="M19" s="12">
+        <f>M15-M17</f>
         <v>-3.4050000000000025E-2</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K21" s="11">
+    <row r="22" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K22" s="9">
         <v>-1.26656038245259</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L22" s="9">
         <v>0.37676294844659303</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M22" s="9">
         <v>0.62577262194716998</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K22" s="15">
-        <f>K21+K18</f>
+    <row r="23" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K23" s="12">
+        <f>K22+K19</f>
         <v>-1.5695403824525895</v>
       </c>
-      <c r="L22" s="15">
-        <f>L21+L18</f>
+      <c r="L23" s="12">
+        <f>L22+L19</f>
         <v>0.45176294844659298</v>
       </c>
-      <c r="M22" s="15">
-        <f>M21+M18</f>
+      <c r="M23" s="12">
+        <f>M22+M19</f>
         <v>0.59172262194716996</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O23" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1344,7 +1331,7 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AB29"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1354,18 +1341,18 @@
       <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1385,315 +1372,310 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>0.83</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>0.55927294844659303</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>25</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>0</v>
       </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>0</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="8"/>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H9" s="9">
         <v>0.93330000000000002</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10"/>
-      <c r="D9" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="8"/>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="K14" s="11">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K15" s="9">
         <v>-1.3243331220516996</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L15" s="9">
         <v>0.45175517503754498</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M15" s="9">
         <v>0.88921153885340298</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="K16" s="12">
+    <row r="17" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K17" s="10">
         <v>-1.0213531220517</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L17" s="10">
         <v>0.37675517503754502</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M17" s="10">
         <v>0.92326153885340301</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K18" s="15">
-        <f>K14-K16</f>
+    <row r="19" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K19" s="12">
+        <f>K15-K17</f>
         <v>-0.30297999999999958</v>
       </c>
-      <c r="L18" s="15">
-        <f>L14-L16</f>
+      <c r="L19" s="12">
+        <f>L15-L17</f>
         <v>7.4999999999999956E-2</v>
       </c>
-      <c r="M18" s="15">
-        <f>M14-M16</f>
+      <c r="M19" s="12">
+        <f>M15-M17</f>
         <v>-3.4050000000000025E-2</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K21" s="11">
+    <row r="22" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K22" s="9">
         <v>-1.26656038245259</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L22" s="9">
         <v>0.37676294844659303</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M22" s="9">
         <v>0.62577262194716998</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K22" s="15">
-        <f>K21+K18</f>
+    <row r="23" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K23" s="12">
+        <f>K22+K19</f>
         <v>-1.5695403824525895</v>
       </c>
-      <c r="L22" s="15">
-        <f>L21+L18</f>
+      <c r="L23" s="12">
+        <f>L22+L19</f>
         <v>0.45176294844659298</v>
       </c>
-      <c r="M22" s="15">
-        <f>M21+M18</f>
+      <c r="M23" s="12">
+        <f>M22+M19</f>
         <v>0.59172262194716996</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K24" s="12">
+    <row r="25" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K25" s="10">
         <v>1.1638776779483</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L25" s="10">
         <v>0.55926517503754503</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M25" s="10">
         <v>1.3352423388534029</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K25" s="12">
+    <row r="26" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K26" s="10">
         <v>-1.0213531220517</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L26" s="10">
         <v>0.37675517503754502</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M26" s="10">
         <v>0.92326153885340301</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K26">
-        <f>K24-K25</f>
+    <row r="27" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <f>K25-K26</f>
         <v>2.1852308000000003</v>
       </c>
-      <c r="L26">
-        <f>L24-L25</f>
+      <c r="L27">
+        <f>L25-L26</f>
         <v>0.18251000000000001</v>
       </c>
-      <c r="M26">
-        <f>M24-M25</f>
+      <c r="M27">
+        <f>M25-M26</f>
         <v>0.41198079999999992</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K28" s="11">
+    <row r="29" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K29" s="9">
         <v>-1.26656038245259</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L29" s="9">
         <v>0.37676294844659303</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M29" s="9">
         <v>0.62577262194716998</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K29" s="15">
-        <f>K28+K26</f>
+    <row r="30" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K30" s="12">
+        <f>K29+K27</f>
         <v>0.9186704175474103</v>
       </c>
-      <c r="L29" s="15">
-        <f>L28+L26</f>
+      <c r="L30" s="12">
+        <f>L29+L27</f>
         <v>0.55927294844659303</v>
       </c>
-      <c r="M29" s="15">
-        <f>M28+M26</f>
+      <c r="M30" s="12">
+        <f>M29+M27</f>
         <v>1.03775342194717</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O30" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1713,28 +1695,28 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AB29"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1754,315 +1736,310 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>-1.3230999999999999</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>0.55801299999999998</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>2.3923999999999999</v>
       </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>25</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>0</v>
       </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
         <v>0</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10"/>
-      <c r="D8" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="8"/>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>0.79210000000000003</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="9">
         <v>0.8196</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H9" s="9">
         <v>0.93330000000000002</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10"/>
-      <c r="D9" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="8"/>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="K14" s="11">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K15" s="9">
         <v>-1.3243331220516996</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L15" s="9">
         <v>0.45175517503754498</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M15" s="9">
         <v>0.88921153885340298</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="K16" s="12">
+    <row r="17" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K17" s="10">
         <v>-1.0213531220517</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L17" s="10">
         <v>0.37675517503754502</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M17" s="10">
         <v>0.92326153885340301</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K18" s="15">
-        <f>K14-K16</f>
+    <row r="19" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K19" s="12">
+        <f>K15-K17</f>
         <v>-0.30297999999999958</v>
       </c>
-      <c r="L18" s="15">
-        <f>L14-L16</f>
+      <c r="L19" s="12">
+        <f>L15-L17</f>
         <v>7.4999999999999956E-2</v>
       </c>
-      <c r="M18" s="15">
-        <f>M14-M16</f>
+      <c r="M19" s="12">
+        <f>M15-M17</f>
         <v>-3.4050000000000025E-2</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K21" s="11">
+    <row r="22" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K22" s="9">
         <v>-1.26656038245259</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L22" s="9">
         <v>0.37676294844659303</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M22" s="9">
         <v>0.62577262194716998</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K22" s="15">
-        <f>K21+K18</f>
+    <row r="23" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K23" s="12">
+        <f>K22+K19</f>
         <v>-1.5695403824525895</v>
       </c>
-      <c r="L22" s="15">
-        <f>L21+L18</f>
+      <c r="L23" s="12">
+        <f>L22+L19</f>
         <v>0.45176294844659298</v>
       </c>
-      <c r="M22" s="15">
-        <f>M21+M18</f>
+      <c r="M23" s="12">
+        <f>M22+M19</f>
         <v>0.59172262194716996</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K24" s="12">
+    <row r="25" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K25" s="10">
         <v>1.1638776779483</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L25" s="10">
         <v>0.55926517503754503</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M25" s="10">
         <v>1.3352423388534029</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K25" s="12">
+    <row r="26" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K26" s="10">
         <v>-1.0213531220517</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L26" s="10">
         <v>0.37675517503754502</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M26" s="10">
         <v>0.92326153885340301</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K26">
-        <f>K24-K25</f>
+    <row r="27" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <f>K25-K26</f>
         <v>2.1852308000000003</v>
       </c>
-      <c r="L26">
-        <f>L24-L25</f>
+      <c r="L27">
+        <f>L25-L26</f>
         <v>0.18251000000000001</v>
       </c>
-      <c r="M26">
-        <f>M24-M25</f>
+      <c r="M27">
+        <f>M25-M26</f>
         <v>0.41198079999999992</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K28" s="11">
+    <row r="29" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K29" s="9">
         <v>-1.26656038245259</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L29" s="9">
         <v>0.37676294844659303</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M29" s="9">
         <v>0.62577262194716998</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K29" s="15">
-        <f>K28+K26</f>
+    <row r="30" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K30" s="12">
+        <f>K29+K27</f>
         <v>0.9186704175474103</v>
       </c>
-      <c r="L29" s="15">
-        <f>L28+L26</f>
+      <c r="L30" s="12">
+        <f>L29+L27</f>
         <v>0.55927294844659303</v>
       </c>
-      <c r="M29" s="15">
-        <f>M28+M26</f>
+      <c r="M30" s="12">
+        <f>M29+M27</f>
         <v>1.03775342194717</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O30" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Libraries/Vehicle/Body/Human/sm_car_data_DriverHuman.xlsx
+++ b/Libraries/Vehicle/Body/Human/sm_car_data_DriverHuman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\allsimscape\cars\vehicle-templates\Libraries\Vehicle\Body\Human\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Body\Human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C219D9E-895E-460D-8ADC-7E38B904B40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A39AA52-A3D7-47C5-BC58-9701DE163BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="510" windowWidth="21600" windowHeight="15210" tabRatio="747" activeTab="4" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="630" yWindow="2610" windowWidth="20595" windowHeight="11235" tabRatio="747" activeTab="5" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="None" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sedan_HambaLG" sheetId="8" r:id="rId3"/>
     <sheet name="Bus_Makhulu" sheetId="9" r:id="rId4"/>
     <sheet name="Truck_Amandla" sheetId="10" r:id="rId5"/>
+    <sheet name="Truck_Rhuqa" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="30">
   <si>
     <t>Units</t>
   </si>
@@ -90,12 +91,6 @@
     <t>[RGB] (0-1)</t>
   </si>
   <si>
-    <t>[0.792156862745098 0.819607843137255 0.933333333333333]</t>
-  </si>
-  <si>
-    <t>[-1.29304760172285 0.376762948446593 0.614132189662097]</t>
-  </si>
-  <si>
     <t>DriverHuman</t>
   </si>
   <si>
@@ -111,30 +106,6 @@
     <t>Sedan_HambaLG</t>
   </si>
   <si>
-    <t>LG Steer</t>
-  </si>
-  <si>
-    <t>Steer</t>
-  </si>
-  <si>
-    <t>Diff</t>
-  </si>
-  <si>
-    <t>Steer Diff</t>
-  </si>
-  <si>
-    <t>DriveHP</t>
-  </si>
-  <si>
-    <t>DriveHP LG</t>
-  </si>
-  <si>
-    <t>Makh Steer</t>
-  </si>
-  <si>
-    <t>DriveHP Makhulu</t>
-  </si>
-  <si>
     <t>Bus_Makhulu</t>
   </si>
   <si>
@@ -154,13 +125,16 @@
   </si>
   <si>
     <t>Use to adjust passenger mass</t>
+  </si>
+  <si>
+    <t>Truck_Rhuqa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +152,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -218,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -251,11 +231,21 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -305,9 +295,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -345,7 +335,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -451,7 +441,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -593,7 +583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -611,7 +601,7 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +646,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -675,7 +665,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -705,21 +695,18 @@
       <c r="H5" s="9">
         <v>0.62577262194716998</v>
       </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="9">
         <v>0</v>
@@ -733,15 +720,15 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -752,12 +739,12 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -786,9 +773,7 @@
       <c r="H9" s="9">
         <v>0.93330000000000002</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -807,7 +792,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -828,7 +813,7 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +858,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -892,7 +877,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -922,21 +907,18 @@
       <c r="H5" s="9">
         <v>0.62577262194716998</v>
       </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="9">
         <v>0</v>
@@ -950,15 +932,15 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -969,12 +951,12 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1003,9 +985,7 @@
       <c r="H9" s="9">
         <v>0.93330000000000002</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1024,7 +1004,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1038,14 +1018,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1039,7 @@
     <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1079,7 +1059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1090,10 +1070,10 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1104,12 +1084,12 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1121,7 +1101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1139,21 +1119,18 @@
       <c r="H5" s="9">
         <v>0.59172262194716996</v>
       </c>
-      <c r="K5" t="s">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="9">
         <v>0</v>
@@ -1165,17 +1142,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1184,14 +1161,14 @@
       </c>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1199,7 +1176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1220,11 +1197,9 @@
       <c r="H9" s="9">
         <v>0.93330000000000002</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1239,85 +1214,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K15" s="9">
-        <v>-1.3243331220516996</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0.45175517503754498</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0.88921153885340298</v>
-      </c>
-      <c r="O15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K17" s="10">
-        <v>-1.0213531220517</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0.37675517503754502</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0.92326153885340301</v>
-      </c>
-      <c r="O17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K19" s="12">
-        <f>K15-K17</f>
-        <v>-0.30297999999999958</v>
-      </c>
-      <c r="L19" s="12">
-        <f>L15-L17</f>
-        <v>7.4999999999999956E-2</v>
-      </c>
-      <c r="M19" s="12">
-        <f>M15-M17</f>
-        <v>-3.4050000000000025E-2</v>
-      </c>
-      <c r="O19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K22" s="9">
-        <v>-1.26656038245259</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0.37676294844659303</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0.62577262194716998</v>
-      </c>
-      <c r="O22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K23" s="12">
-        <f>K22+K19</f>
-        <v>-1.5695403824525895</v>
-      </c>
-      <c r="L23" s="12">
-        <f>L22+L19</f>
-        <v>0.45176294844659298</v>
-      </c>
-      <c r="M23" s="12">
-        <f>M22+M19</f>
-        <v>0.59172262194716996</v>
-      </c>
-      <c r="O23" t="s">
-        <v>29</v>
-      </c>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="17" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="19" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="22" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1331,14 +1255,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1276,7 @@
     <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1372,7 +1296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1383,10 +1307,10 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1397,12 +1321,12 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1414,7 +1338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1433,17 +1357,17 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="9">
         <v>0</v>
@@ -1455,17 +1379,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1474,14 +1398,14 @@
       </c>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1489,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1512,7 +1436,7 @@
       </c>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1527,161 +1451,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K15" s="9">
-        <v>-1.3243331220516996</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0.45175517503754498</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0.88921153885340298</v>
-      </c>
-      <c r="O15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K17" s="10">
-        <v>-1.0213531220517</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0.37675517503754502</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0.92326153885340301</v>
-      </c>
-      <c r="O17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K19" s="12">
-        <f>K15-K17</f>
-        <v>-0.30297999999999958</v>
-      </c>
-      <c r="L19" s="12">
-        <f>L15-L17</f>
-        <v>7.4999999999999956E-2</v>
-      </c>
-      <c r="M19" s="12">
-        <f>M15-M17</f>
-        <v>-3.4050000000000025E-2</v>
-      </c>
-      <c r="O19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K22" s="9">
-        <v>-1.26656038245259</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0.37676294844659303</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0.62577262194716998</v>
-      </c>
-      <c r="O22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K23" s="12">
-        <f>K22+K19</f>
-        <v>-1.5695403824525895</v>
-      </c>
-      <c r="L23" s="12">
-        <f>L22+L19</f>
-        <v>0.45176294844659298</v>
-      </c>
-      <c r="M23" s="12">
-        <f>M22+M19</f>
-        <v>0.59172262194716996</v>
-      </c>
-      <c r="O23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K25" s="10">
-        <v>1.1638776779483</v>
-      </c>
-      <c r="L25" s="10">
-        <v>0.55926517503754503</v>
-      </c>
-      <c r="M25" s="10">
-        <v>1.3352423388534029</v>
-      </c>
-      <c r="O25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K26" s="10">
-        <v>-1.0213531220517</v>
-      </c>
-      <c r="L26" s="10">
-        <v>0.37675517503754502</v>
-      </c>
-      <c r="M26" s="10">
-        <v>0.92326153885340301</v>
-      </c>
-      <c r="O26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K27">
-        <f>K25-K26</f>
-        <v>2.1852308000000003</v>
-      </c>
-      <c r="L27">
-        <f>L25-L26</f>
-        <v>0.18251000000000001</v>
-      </c>
-      <c r="M27">
-        <f>M25-M26</f>
-        <v>0.41198079999999992</v>
-      </c>
-      <c r="O27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K29" s="9">
-        <v>-1.26656038245259</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0.37676294844659303</v>
-      </c>
-      <c r="M29" s="9">
-        <v>0.62577262194716998</v>
-      </c>
-      <c r="O29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K30" s="12">
-        <f>K29+K27</f>
-        <v>0.9186704175474103</v>
-      </c>
-      <c r="L30" s="12">
-        <f>L29+L27</f>
-        <v>0.55927294844659303</v>
-      </c>
-      <c r="M30" s="12">
-        <f>M29+M27</f>
-        <v>1.03775342194717</v>
-      </c>
-      <c r="O30" t="s">
-        <v>31</v>
-      </c>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="17" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="19" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="22" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="25" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="29" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1695,14 +1512,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,7 +1533,7 @@
     <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1736,7 +1553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1747,10 +1564,10 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1761,12 +1578,12 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1778,7 +1595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1797,17 +1614,17 @@
         <v>2.3923999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="9">
         <v>0</v>
@@ -1819,17 +1636,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1838,14 +1655,14 @@
       </c>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1853,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1876,7 +1693,7 @@
       </c>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1891,157 +1708,310 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K15" s="9">
-        <v>-1.3243331220516996</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0.45175517503754498</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0.88921153885340298</v>
-      </c>
-      <c r="O15" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="17" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="19" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="22" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="25" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="29" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:B4">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3EABD5-6D0C-4452-AEDD-36BE31572C54}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>25</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K17" s="10">
-        <v>-1.0213531220517</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0.37675517503754502</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0.92326153885340301</v>
-      </c>
-      <c r="O17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K19" s="12">
-        <f>K15-K17</f>
-        <v>-0.30297999999999958</v>
-      </c>
-      <c r="L19" s="12">
-        <f>L15-L17</f>
-        <v>7.4999999999999956E-2</v>
-      </c>
-      <c r="M19" s="12">
-        <f>M15-M17</f>
-        <v>-3.4050000000000025E-2</v>
-      </c>
-      <c r="O19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K22" s="9">
-        <v>-1.26656038245259</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0.37676294844659303</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0.62577262194716998</v>
-      </c>
-      <c r="O22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K23" s="12">
-        <f>K22+K19</f>
-        <v>-1.5695403824525895</v>
-      </c>
-      <c r="L23" s="12">
-        <f>L22+L19</f>
-        <v>0.45176294844659298</v>
-      </c>
-      <c r="M23" s="12">
-        <f>M22+M19</f>
-        <v>0.59172262194716996</v>
-      </c>
-      <c r="O23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K25" s="10">
-        <v>1.1638776779483</v>
-      </c>
-      <c r="L25" s="10">
-        <v>0.55926517503754503</v>
-      </c>
-      <c r="M25" s="10">
-        <v>1.3352423388534029</v>
-      </c>
-      <c r="O25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K26" s="10">
-        <v>-1.0213531220517</v>
-      </c>
-      <c r="L26" s="10">
-        <v>0.37675517503754502</v>
-      </c>
-      <c r="M26" s="10">
-        <v>0.92326153885340301</v>
-      </c>
-      <c r="O26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K27">
-        <f>K25-K26</f>
-        <v>2.1852308000000003</v>
-      </c>
-      <c r="L27">
-        <f>L25-L26</f>
-        <v>0.18251000000000001</v>
-      </c>
-      <c r="M27">
-        <f>M25-M26</f>
-        <v>0.41198079999999992</v>
-      </c>
-      <c r="O27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K29" s="9">
-        <v>-1.26656038245259</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0.37676294844659303</v>
-      </c>
-      <c r="M29" s="9">
-        <v>0.62577262194716998</v>
-      </c>
-      <c r="O29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K30" s="12">
-        <f>K29+K27</f>
-        <v>0.9186704175474103</v>
-      </c>
-      <c r="L30" s="12">
-        <f>L29+L27</f>
-        <v>0.55927294844659303</v>
-      </c>
-      <c r="M30" s="12">
-        <f>M29+M27</f>
-        <v>1.03775342194717</v>
-      </c>
-      <c r="O30" t="s">
-        <v>31</v>
-      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8"/>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.8196</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="8"/>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="17" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="19" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="22" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="25" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="29" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:B4">

--- a/Libraries/Vehicle/Body/Human/sm_car_data_DriverHuman.xlsx
+++ b/Libraries/Vehicle/Body/Human/sm_car_data_DriverHuman.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Body\Human\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vtpVDG\Libraries\Vehicle\Body\Human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A39AA52-A3D7-47C5-BC58-9701DE163BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C257040-FACE-4B25-9011-E79721A9671E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="2610" windowWidth="20595" windowHeight="11235" tabRatio="747" activeTab="5" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="2805" yWindow="1350" windowWidth="20055" windowHeight="13050" tabRatio="747" activeTab="2" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="None" sheetId="7" r:id="rId1"/>
     <sheet name="Sedan_Hamba" sheetId="5" r:id="rId2"/>
-    <sheet name="Sedan_HambaLG" sheetId="8" r:id="rId3"/>
-    <sheet name="Bus_Makhulu" sheetId="9" r:id="rId4"/>
-    <sheet name="Truck_Amandla" sheetId="10" r:id="rId5"/>
-    <sheet name="Truck_Rhuqa" sheetId="11" r:id="rId6"/>
+    <sheet name="SUV_Landy" sheetId="12" r:id="rId3"/>
+    <sheet name="Sedan_HambaLG" sheetId="8" r:id="rId4"/>
+    <sheet name="Bus_Makhulu" sheetId="9" r:id="rId5"/>
+    <sheet name="Truck_Amandla" sheetId="10" r:id="rId6"/>
+    <sheet name="Truck_Rhuqa" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="31">
   <si>
     <t>Units</t>
   </si>
@@ -128,6 +129,9 @@
   </si>
   <si>
     <t>Truck_Rhuqa</t>
+  </si>
+  <si>
+    <t>SUV_Landy</t>
   </si>
 </sst>
 </file>
@@ -160,7 +164,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +189,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -198,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -234,11 +244,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -792,7 +810,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1004,6 +1022,218 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:B4">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D19DD41-7426-4253-BF14-54EBE1586984}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="9">
+        <v>-1.26656038245259</v>
+      </c>
+      <c r="G5" s="17">
+        <v>-0.37676294844659303</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8"/>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.8196</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="8"/>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:B4">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -1013,7 +1243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE71D28-07F7-4155-9112-122BBF110D48}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -1250,7 +1480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A8B0D8-BDE6-4215-B60D-E682A04EB8FD}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -1507,7 +1737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE6E90-5A8F-4548-9B59-28F95E095825}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -1764,14 +1994,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3EABD5-6D0C-4452-AEDD-36BE31572C54}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
